--- a/data_new/ABC_Cord Blood_Metabolomics_OL data_15Jan2020.xlsx
+++ b/data_new/ABC_Cord Blood_Metabolomics_OL data_15Jan2020.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieqi/practicum/data_new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AD77F6-70A3-2840-B6F6-223A0FE561BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="10905"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1177,12 +1183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1197,8 +1209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,25 +1484,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CC201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1749,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>555841</v>
       </c>
@@ -1979,7 +1994,7 @@
         <v>3.4679878444786207</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>526351</v>
       </c>
@@ -2224,7 +2239,7 @@
         <v>0.65785839477937769</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>56661</v>
       </c>
@@ -2469,7 +2484,7 @@
         <v>1.0523114613184403</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>55961</v>
       </c>
@@ -2714,7 +2729,7 @@
         <v>0.49265459595428956</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15921</v>
       </c>
@@ -2959,7 +2974,7 @@
         <v>3.8189425826007004</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>21491</v>
       </c>
@@ -3204,7 +3219,7 @@
         <v>0.5989717874460363</v>
       </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>149431</v>
       </c>
@@ -3449,7 +3464,7 @@
         <v>6.5219270254983224</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>86591</v>
       </c>
@@ -3694,7 +3709,7 @@
         <v>8.4914925996805696E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>26641</v>
       </c>
@@ -3939,7 +3954,7 @@
         <v>0.16220702234229492</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>46691</v>
       </c>
@@ -4184,7 +4199,7 @@
         <v>8.2063745513236155E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>830331</v>
       </c>
@@ -4429,7 +4444,7 @@
         <v>3.8293958632579561</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>784571</v>
       </c>
@@ -4674,7 +4689,7 @@
         <v>5.3131397513278449</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>458131</v>
       </c>
@@ -4919,7 +4934,7 @@
         <v>0.26663099295902215</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>491671</v>
       </c>
@@ -5164,7 +5179,7 @@
         <v>1.7907339620182285</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>42741</v>
       </c>
@@ -5409,7 +5424,7 @@
         <v>0.9777328464804913</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>31881</v>
       </c>
@@ -5654,7 +5669,7 @@
         <v>1.3968613873504339</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>755591</v>
       </c>
@@ -5899,7 +5914,7 @@
         <v>2.9568877214080298</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>899141</v>
       </c>
@@ -6144,7 +6159,7 @@
         <v>0.30574349208422896</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>600481</v>
       </c>
@@ -6389,7 +6404,7 @@
         <v>5.1456572489146559</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1264271</v>
       </c>
@@ -6634,7 +6649,7 @@
         <v>0.43162187105780497</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>717381</v>
       </c>
@@ -6879,7 +6894,7 @@
         <v>0.38502166177297459</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>657371</v>
       </c>
@@ -7124,7 +7139,7 @@
         <v>2.9480793047074854</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>837991</v>
       </c>
@@ -7369,7 +7384,7 @@
         <v>2.6588007407196503</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>872051</v>
       </c>
@@ -7614,7 +7629,7 @@
         <v>0.96480646816529081</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>180721</v>
       </c>
@@ -7859,7 +7874,7 @@
         <v>1.0774544509607946</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>173951</v>
       </c>
@@ -8104,7 +8119,7 @@
         <v>0.48033611321173336</v>
       </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1241601</v>
       </c>
@@ -8349,7 +8364,7 @@
         <v>9.1940170993566037E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>830031</v>
       </c>
@@ -8594,497 +8609,497 @@
         <v>2.6590814311491759</v>
       </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>1012971</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>15</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>26.989619380000001</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>3</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>2008</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>0.11865372634618242</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>5.3528446236501201</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>2.3581463886014259E-2</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>2.495697292350239</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>2.3976292913575632</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>0.23549874938402562</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>1.0996354840003113</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>5.4597624101554842</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>1.5143422921219254</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="1">
         <v>0.20953821270949735</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <v>0.98251781450757258</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="1">
         <v>1.8314386928020956</v>
       </c>
-      <c r="W30">
+      <c r="W30" s="1">
         <v>0.59716055962371617</v>
       </c>
-      <c r="X30">
+      <c r="X30" s="1">
         <v>7.7761269708614194</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="1">
         <v>11.088663567832853</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="1">
         <v>7.5872828898260938</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" s="1">
         <v>16.078444034415043</v>
       </c>
-      <c r="AB30">
+      <c r="AB30" s="1">
         <v>0.16960137761036764</v>
       </c>
-      <c r="AC30">
+      <c r="AC30" s="1">
         <v>0.11700952627253131</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="1">
         <v>9.7003745743675562</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="1">
         <v>10.669304288149718</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="1">
         <v>11.7999717048696</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="1">
         <v>6.7643044152816909</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" s="1">
         <v>21.486943253558842</v>
       </c>
-      <c r="AI30">
+      <c r="AI30" s="1">
         <v>3.3225697179168323</v>
       </c>
-      <c r="AJ30">
+      <c r="AJ30" s="1">
         <v>9.2845963183188438</v>
       </c>
-      <c r="AK30">
+      <c r="AK30" s="1">
         <v>0.4802421343925164</v>
       </c>
-      <c r="AL30">
+      <c r="AL30" s="1">
         <v>0.43316176988038613</v>
       </c>
-      <c r="AM30">
+      <c r="AM30" s="1">
         <v>3.1537852892560188</v>
       </c>
-      <c r="AN30">
+      <c r="AN30" s="1">
         <v>0.47553726707884802</v>
       </c>
-      <c r="AO30">
+      <c r="AO30" s="1">
         <v>0.55765483859547416</v>
       </c>
-      <c r="AP30">
+      <c r="AP30" s="1">
         <v>21.404486478809233</v>
       </c>
-      <c r="AQ30">
+      <c r="AQ30" s="1">
         <v>10.284363896227585</v>
       </c>
-      <c r="AR30">
+      <c r="AR30" s="1">
         <v>0.25827381343387246</v>
       </c>
-      <c r="AS30">
+      <c r="AS30" s="1">
         <v>0.6074445880730065</v>
       </c>
-      <c r="AT30">
+      <c r="AT30" s="1">
         <v>6.1700135462568753</v>
       </c>
-      <c r="AU30">
+      <c r="AU30" s="1">
         <v>20.143212064212484</v>
       </c>
-      <c r="AV30">
+      <c r="AV30" s="1">
         <v>100.22350219304396</v>
       </c>
-      <c r="AW30">
+      <c r="AW30" s="1">
         <v>9.8016906980035952</v>
       </c>
-      <c r="AX30">
+      <c r="AX30" s="1">
         <v>14.087395798898084</v>
       </c>
-      <c r="AY30">
+      <c r="AY30" s="1">
         <v>12.786133634629977</v>
       </c>
-      <c r="AZ30">
+      <c r="AZ30" s="1">
         <v>5.9665906338043291</v>
       </c>
-      <c r="BA30">
+      <c r="BA30" s="1">
         <v>0.39071050121538919</v>
       </c>
-      <c r="BB30">
+      <c r="BB30" s="1">
         <v>2.2709703685695337</v>
       </c>
-      <c r="BC30">
+      <c r="BC30" s="1">
         <v>0.38689302682883919</v>
       </c>
-      <c r="BD30">
+      <c r="BD30" s="1">
         <v>0.63416109780133179</v>
       </c>
-      <c r="BE30">
+      <c r="BE30" s="1">
         <v>2.5801789451483508</v>
       </c>
-      <c r="BF30">
+      <c r="BF30" s="1">
         <v>97.03055495782651</v>
       </c>
-      <c r="BG30">
+      <c r="BG30" s="1">
         <v>6.4225862141139167</v>
       </c>
-      <c r="BH30">
+      <c r="BH30" s="1">
         <v>0.29439698013037718</v>
       </c>
-      <c r="BI30">
+      <c r="BI30" s="1">
         <v>0.63712508999845452</v>
       </c>
-      <c r="BJ30">
+      <c r="BJ30" s="1">
         <v>8.401898637537295</v>
       </c>
-      <c r="BK30">
+      <c r="BK30" s="1">
         <v>0.3215389544710115</v>
       </c>
-      <c r="BL30">
+      <c r="BL30" s="1">
         <v>4.4312999692936446</v>
       </c>
-      <c r="BM30">
+      <c r="BM30" s="1">
         <v>0.30044901444160793</v>
       </c>
-      <c r="BN30">
+      <c r="BN30" s="1">
         <v>2.7571777465014047</v>
       </c>
-      <c r="BO30">
+      <c r="BO30" s="1">
         <v>0.2041640830889315</v>
       </c>
-      <c r="BP30">
+      <c r="BP30" s="1">
         <v>2.5292908722901934</v>
       </c>
-      <c r="BQ30">
+      <c r="BQ30" s="1">
         <v>0.19564177294012614</v>
       </c>
-      <c r="BR30">
+      <c r="BR30" s="1">
         <v>0.23146764359384717</v>
       </c>
-      <c r="BS30">
+      <c r="BS30" s="1">
         <v>0.71026551011695949</v>
       </c>
-      <c r="BT30">
+      <c r="BT30" s="1">
         <v>0.17201737451239058</v>
       </c>
-      <c r="BU30">
+      <c r="BU30" s="1">
         <v>1.4731612616413494</v>
       </c>
-      <c r="BV30">
+      <c r="BV30" s="1">
         <v>0.2470920727738968</v>
       </c>
-      <c r="BW30">
+      <c r="BW30" s="1">
         <v>0.62480497354571252</v>
       </c>
-      <c r="BX30">
+      <c r="BX30" s="1">
         <v>4.1695407754573095E-2</v>
       </c>
-      <c r="BY30">
+      <c r="BY30" s="1">
         <v>1.4524204923524411</v>
       </c>
-      <c r="BZ30">
+      <c r="BZ30" s="1">
         <v>6.7368956919794822</v>
       </c>
-      <c r="CA30">
+      <c r="CA30" s="1">
         <v>5.9192454530398758E-2</v>
       </c>
-      <c r="CB30">
+      <c r="CB30" s="1">
         <v>7.2566472487451223</v>
       </c>
-      <c r="CC30">
+      <c r="CC30" s="1">
         <v>2.2928441123585079</v>
       </c>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>1018611</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>15</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>21.203105229999998</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>3</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>2008</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>1</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>3.2021830723968315E-3</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <v>0.16363422273467348</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <v>3.4450220480656815E-3</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>5.1248849953939503E-2</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>2.4773265094119708E-2</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="1">
         <v>1.9394447345407982E-2</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="1">
         <v>3.8622581155753309E-3</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>0.18183137084589668</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="1">
         <v>0.12036179443519787</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="1">
         <v>1.1403684461705201E-2</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="1">
         <v>9.9232769908256576E-3</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="1">
         <v>0.18727997916328629</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="1">
         <v>2.3562697307929988E-2</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="1">
         <v>0.22270539783876456</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="1">
         <v>7.7437589230074946E-2</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="1">
         <v>4.1101220774272682E-2</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" s="1">
         <v>6.3084720471722922E-2</v>
       </c>
-      <c r="AB31">
+      <c r="AB31" s="1">
         <v>4.3558291496258858E-3</v>
       </c>
-      <c r="AC31">
+      <c r="AC31" s="1">
         <v>7.3770782049982898E-4</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" s="1">
         <v>0.17565635604853941</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" s="1">
         <v>0.18981737950189234</v>
       </c>
-      <c r="AF31">
+      <c r="AF31" s="1">
         <v>0.22009744970025516</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" s="1">
         <v>0.10926857599639532</v>
       </c>
-      <c r="AH31">
+      <c r="AH31" s="1">
         <v>0.74154821710359864</v>
       </c>
-      <c r="AI31">
+      <c r="AI31" s="1">
         <v>0.12548680518847302</v>
       </c>
-      <c r="AJ31">
+      <c r="AJ31" s="1">
         <v>0.28775331414171273</v>
       </c>
-      <c r="AK31">
+      <c r="AK31" s="1">
         <v>1.4179379138894121E-2</v>
       </c>
-      <c r="AL31">
+      <c r="AL31" s="1">
         <v>7.1145545186324835E-2</v>
       </c>
-      <c r="AM31">
+      <c r="AM31" s="1">
         <v>7.3711576237532172E-3</v>
       </c>
-      <c r="AN31">
+      <c r="AN31" s="1">
         <v>1.0678548585927022E-2</v>
       </c>
-      <c r="AO31">
+      <c r="AO31" s="1">
         <v>1.2728029572410642E-2</v>
       </c>
-      <c r="AP31">
+      <c r="AP31" s="1">
         <v>0.43475135379745755</v>
       </c>
-      <c r="AQ31">
+      <c r="AQ31" s="1">
         <v>0.11988695124245331</v>
       </c>
-      <c r="AR31">
+      <c r="AR31" s="1">
         <v>1.5133164654790622E-2</v>
       </c>
-      <c r="AS31">
+      <c r="AS31" s="1">
         <v>7.824221626322677E-3</v>
       </c>
-      <c r="AT31">
+      <c r="AT31" s="1">
         <v>9.9332269081213648E-2</v>
       </c>
-      <c r="AU31">
+      <c r="AU31" s="1">
         <v>0.77147700522624751</v>
       </c>
-      <c r="AV31">
+      <c r="AV31" s="1">
         <v>2.34023251675975</v>
       </c>
-      <c r="AW31">
+      <c r="AW31" s="1">
         <v>0.36184365454040796</v>
       </c>
-      <c r="AX31">
+      <c r="AX31" s="1">
         <v>0.46996323510116844</v>
       </c>
-      <c r="AY31">
+      <c r="AY31" s="1">
         <v>0.83834099975554577</v>
       </c>
-      <c r="AZ31">
+      <c r="AZ31" s="1">
         <v>0.27705069166292934</v>
       </c>
-      <c r="BA31">
+      <c r="BA31" s="1">
         <v>1.0014904452065041E-2</v>
       </c>
-      <c r="BB31">
+      <c r="BB31" s="1">
         <v>0.1056341471432875</v>
       </c>
-      <c r="BC31">
+      <c r="BC31" s="1">
         <v>0.26971444200521649</v>
       </c>
-      <c r="BD31">
+      <c r="BD31" s="1">
         <v>3.0733000439203201E-2</v>
       </c>
-      <c r="BE31">
+      <c r="BE31" s="1">
         <v>0.22766518911573302</v>
       </c>
-      <c r="BF31">
+      <c r="BF31" s="1">
         <v>1.3480195216807223</v>
       </c>
-      <c r="BG31">
+      <c r="BG31" s="1">
         <v>0.40837471597472291</v>
       </c>
-      <c r="BH31">
+      <c r="BH31" s="1">
         <v>1.2027194042989419E-2</v>
       </c>
-      <c r="BI31">
+      <c r="BI31" s="1">
         <v>4.061302964244598E-2</v>
       </c>
-      <c r="BJ31">
+      <c r="BJ31" s="1">
         <v>0.21531958497231948</v>
       </c>
-      <c r="BK31">
+      <c r="BK31" s="1">
         <v>1.1582243181394085E-2</v>
       </c>
-      <c r="BL31">
+      <c r="BL31" s="1">
         <v>0.12131896972089136</v>
       </c>
-      <c r="BM31">
+      <c r="BM31" s="1">
         <v>1.500493052168466E-2</v>
       </c>
-      <c r="BN31">
+      <c r="BN31" s="1">
         <v>13.791904644167532</v>
       </c>
-      <c r="BO31">
+      <c r="BO31" s="1">
         <v>11.912050337053632</v>
       </c>
-      <c r="BP31">
+      <c r="BP31" s="1">
         <v>31.677501394307356</v>
       </c>
-      <c r="BQ31">
+      <c r="BQ31" s="1">
         <v>9.0401065984586335</v>
       </c>
-      <c r="BR31">
+      <c r="BR31" s="1">
         <v>3.7630866524886208</v>
       </c>
-      <c r="BS31">
+      <c r="BS31" s="1">
         <v>4.8074834373781554</v>
       </c>
-      <c r="BT31">
+      <c r="BT31" s="1">
         <v>2.4334065670290013</v>
       </c>
-      <c r="BU31">
+      <c r="BU31" s="1">
         <v>23.955474288371271</v>
       </c>
-      <c r="BV31">
+      <c r="BV31" s="1">
         <v>20.006047431949732</v>
       </c>
-      <c r="BW31">
+      <c r="BW31" s="1">
         <v>180.93856008793378</v>
       </c>
-      <c r="BX31">
+      <c r="BX31" s="1">
         <v>17.647935751064889</v>
       </c>
-      <c r="BY31">
+      <c r="BY31" s="1">
         <v>34.153602981700665</v>
       </c>
-      <c r="BZ31">
+      <c r="BZ31" s="1">
         <v>129.95785851107155</v>
       </c>
-      <c r="CA31">
+      <c r="CA31" s="1">
         <v>2.4645878109538371E-2</v>
       </c>
-      <c r="CB31">
+      <c r="CB31" s="1">
         <v>0.20560785592398118</v>
       </c>
-      <c r="CC31">
+      <c r="CC31" s="1">
         <v>3.8317744882640149E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>917931</v>
       </c>
@@ -9329,7 +9344,7 @@
         <v>1.5307496842050814</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>959691</v>
       </c>
@@ -9574,7 +9589,7 @@
         <v>27.140710833736549</v>
       </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>36731</v>
       </c>
@@ -9819,7 +9834,7 @@
         <v>1.5504372185983062</v>
       </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34171</v>
       </c>
@@ -10064,7 +10079,7 @@
         <v>2.5318344866610833</v>
       </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>22881</v>
       </c>
@@ -10309,7 +10324,7 @@
         <v>0.32977706218498609</v>
       </c>
     </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>29151</v>
       </c>
@@ -10554,7 +10569,7 @@
         <v>0.21825310512341345</v>
       </c>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>147211</v>
       </c>
@@ -10799,7 +10814,7 @@
         <v>3.9867188735692038</v>
       </c>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>66961</v>
       </c>
@@ -11044,7 +11059,7 @@
         <v>1.2666188656690951</v>
       </c>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>128041</v>
       </c>
@@ -11289,7 +11304,7 @@
         <v>0.45061284675935959</v>
       </c>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>73061</v>
       </c>
@@ -11534,7 +11549,7 @@
         <v>0.3177844076535209</v>
       </c>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>108261</v>
       </c>
@@ -11779,7 +11794,7 @@
         <v>3.3521551814673769</v>
       </c>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>67701</v>
       </c>
@@ -12024,7 +12039,7 @@
         <v>5.9613234377076889</v>
       </c>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>175061</v>
       </c>
@@ -12269,7 +12284,7 @@
         <v>0.59151750636379019</v>
       </c>
     </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>228111</v>
       </c>
@@ -12514,7 +12529,7 @@
         <v>27.697395937131553</v>
       </c>
     </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>165751</v>
       </c>
@@ -12759,7 +12774,7 @@
         <v>2.8563058774846453</v>
       </c>
     </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>237021</v>
       </c>
@@ -13004,7 +13019,7 @@
         <v>0.15070944022750998</v>
       </c>
     </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>77481</v>
       </c>
@@ -13249,7 +13264,7 @@
         <v>0.19828666653743066</v>
       </c>
     </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>72691</v>
       </c>
@@ -13494,7 +13509,7 @@
         <v>2.3498576446067929</v>
       </c>
     </row>
-    <row r="50" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>51341</v>
       </c>
@@ -13739,7 +13754,7 @@
         <v>0.69663935150446465</v>
       </c>
     </row>
-    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>57711</v>
       </c>
@@ -13984,7 +13999,7 @@
         <v>1.1361380655211633</v>
       </c>
     </row>
-    <row r="52" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1231831</v>
       </c>
@@ -14229,7 +14244,7 @@
         <v>0.86694412321577541</v>
       </c>
     </row>
-    <row r="53" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>837381</v>
       </c>
@@ -14474,7 +14489,7 @@
         <v>0.44375477084846165</v>
       </c>
     </row>
-    <row r="54" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>525861</v>
       </c>
@@ -14719,7 +14734,7 @@
         <v>0.3918086809307596</v>
       </c>
     </row>
-    <row r="55" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>457521</v>
       </c>
@@ -14964,7 +14979,7 @@
         <v>1.3848138011499393</v>
       </c>
     </row>
-    <row r="56" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>69311</v>
       </c>
@@ -15209,7 +15224,7 @@
         <v>6.9036661083870049E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>69551</v>
       </c>
@@ -15454,7 +15469,7 @@
         <v>0.427905409263659</v>
       </c>
     </row>
-    <row r="58" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>26091</v>
       </c>
@@ -15699,7 +15714,7 @@
         <v>1.6095556638471389</v>
       </c>
     </row>
-    <row r="59" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>44371</v>
       </c>
@@ -15944,7 +15959,7 @@
         <v>0.57740853635622691</v>
       </c>
     </row>
-    <row r="60" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>237551</v>
       </c>
@@ -16189,7 +16204,7 @@
         <v>0.98582160195655211</v>
       </c>
     </row>
-    <row r="61" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>274921</v>
       </c>
@@ -16434,7 +16449,7 @@
         <v>0.93637007631099067</v>
       </c>
     </row>
-    <row r="62" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>147171</v>
       </c>
@@ -16679,7 +16694,7 @@
         <v>0.92538854624240741</v>
       </c>
     </row>
-    <row r="63" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>89811</v>
       </c>
@@ -16924,7 +16939,7 @@
         <v>0.45443696865220401</v>
       </c>
     </row>
-    <row r="64" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>91831</v>
       </c>
@@ -17169,7 +17184,7 @@
         <v>0.41203788844413863</v>
       </c>
     </row>
-    <row r="65" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>109191</v>
       </c>
@@ -17414,7 +17429,7 @@
         <v>2.1760409498590279</v>
       </c>
     </row>
-    <row r="66" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>263481</v>
       </c>
@@ -17659,7 +17674,7 @@
         <v>1.6834258912238815</v>
       </c>
     </row>
-    <row r="67" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>215711</v>
       </c>
@@ -17904,7 +17919,7 @@
         <v>0.78601421346864175</v>
       </c>
     </row>
-    <row r="68" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>60011</v>
       </c>
@@ -18149,7 +18164,7 @@
         <v>0.97532804835751696</v>
       </c>
     </row>
-    <row r="69" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>51171</v>
       </c>
@@ -18394,7 +18409,7 @@
         <v>0.22081017232332223</v>
       </c>
     </row>
-    <row r="70" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69321</v>
       </c>
@@ -18639,7 +18654,7 @@
         <v>0.38223946317087332</v>
       </c>
     </row>
-    <row r="71" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>140221</v>
       </c>
@@ -18884,7 +18899,7 @@
         <v>0.38826279228037458</v>
       </c>
     </row>
-    <row r="72" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>407841</v>
       </c>
@@ -19129,7 +19144,7 @@
         <v>2.811312331359261</v>
       </c>
     </row>
-    <row r="73" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>318801</v>
       </c>
@@ -19374,7 +19389,7 @@
         <v>1.1880627581475647</v>
       </c>
     </row>
-    <row r="74" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>292711</v>
       </c>
@@ -19619,7 +19634,7 @@
         <v>9.2493425529330681E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>371391</v>
       </c>
@@ -19864,7 +19879,7 @@
         <v>0.58900417732058785</v>
       </c>
     </row>
-    <row r="76" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>308551</v>
       </c>
@@ -20109,7 +20124,7 @@
         <v>0.59500209799172032</v>
       </c>
     </row>
-    <row r="77" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>402801</v>
       </c>
@@ -20354,7 +20369,7 @@
         <v>1.6461090448171283</v>
       </c>
     </row>
-    <row r="78" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>153031</v>
       </c>
@@ -20599,7 +20614,7 @@
         <v>0.59566257566912195</v>
       </c>
     </row>
-    <row r="79" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>238811</v>
       </c>
@@ -20844,7 +20859,7 @@
         <v>0.12679517184247732</v>
       </c>
     </row>
-    <row r="80" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>283621</v>
       </c>
@@ -21089,7 +21104,7 @@
         <v>3.1725509895918598</v>
       </c>
     </row>
-    <row r="81" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>325041</v>
       </c>
@@ -21334,7 +21349,7 @@
         <v>1.3279589966583865</v>
       </c>
     </row>
-    <row r="82" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>231521</v>
       </c>
@@ -21579,7 +21594,7 @@
         <v>1.2285676598280866</v>
       </c>
     </row>
-    <row r="83" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>155351</v>
       </c>
@@ -21824,7 +21839,7 @@
         <v>8.5454322624305787E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>316761</v>
       </c>
@@ -22069,7 +22084,7 @@
         <v>5.5363488304877403E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>334741</v>
       </c>
@@ -22314,497 +22329,497 @@
         <v>0.41856095127816939</v>
       </c>
     </row>
-    <row r="86" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>401421</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>43</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>1</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>28.73563218</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="1">
         <v>9</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="1">
         <v>2004</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="1">
         <v>0</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="1">
         <v>3</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="1">
         <v>8.9910926539565599E-3</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="1">
         <v>3.4000817704003088E-2</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="1">
         <v>3.3864262760992356E-3</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="1">
         <v>2.2818416949519173E-2</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="1">
         <v>5.7081629438602384E-3</v>
       </c>
-      <c r="P86">
+      <c r="P86" s="1">
         <v>4.8776357003866974E-3</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" s="1">
         <v>3.1333527892540201E-2</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="1">
         <v>9.7735494444824086E-2</v>
       </c>
-      <c r="S86">
+      <c r="S86" s="1">
         <v>9.7239091851177281E-2</v>
       </c>
-      <c r="T86">
+      <c r="T86" s="1">
         <v>4.6082145811794884E-3</v>
       </c>
-      <c r="U86">
+      <c r="U86" s="1">
         <v>6.0540468109446251E-2</v>
       </c>
-      <c r="V86">
+      <c r="V86" s="1">
         <v>0.12774425335260087</v>
       </c>
-      <c r="W86">
+      <c r="W86" s="1">
         <v>2.6951359653099905E-2</v>
       </c>
-      <c r="X86">
+      <c r="X86" s="1">
         <v>0.39376354256023482</v>
       </c>
-      <c r="Y86">
+      <c r="Y86" s="1">
         <v>0.20120327398416185</v>
       </c>
-      <c r="Z86">
+      <c r="Z86" s="1">
         <v>0.16609392092878233</v>
       </c>
-      <c r="AA86">
+      <c r="AA86" s="1">
         <v>0.26049058690508148</v>
       </c>
-      <c r="AB86">
+      <c r="AB86" s="1">
         <v>7.1485967853340679E-3</v>
       </c>
-      <c r="AC86">
+      <c r="AC86" s="1">
         <v>2.0629784974829524E-3</v>
       </c>
-      <c r="AD86">
+      <c r="AD86" s="1">
         <v>0.22450451211395295</v>
       </c>
-      <c r="AE86">
+      <c r="AE86" s="1">
         <v>0.27208958040937753</v>
       </c>
-      <c r="AF86">
+      <c r="AF86" s="1">
         <v>0.3386236484321612</v>
       </c>
-      <c r="AG86">
+      <c r="AG86" s="1">
         <v>0.38882733348824039</v>
       </c>
-      <c r="AH86">
+      <c r="AH86" s="1">
         <v>0.36993531584894374</v>
       </c>
-      <c r="AI86">
+      <c r="AI86" s="1">
         <v>2.4062300883653426E-2</v>
       </c>
-      <c r="AJ86">
+      <c r="AJ86" s="1">
         <v>0.2969868754379606</v>
       </c>
-      <c r="AK86">
+      <c r="AK86" s="1">
         <v>5.0476760878023941E-2</v>
       </c>
-      <c r="AL86">
+      <c r="AL86" s="1">
         <v>5.825520664791916E-2</v>
       </c>
-      <c r="AM86">
+      <c r="AM86" s="1">
         <v>6.8426639815697601E-3</v>
       </c>
-      <c r="AN86">
+      <c r="AN86" s="1">
         <v>6.6362467989460302E-3</v>
       </c>
-      <c r="AO86">
+      <c r="AO86" s="1">
         <v>1.2811060394388918E-2</v>
       </c>
-      <c r="AP86">
+      <c r="AP86" s="1">
         <v>0.39519905059689475</v>
       </c>
-      <c r="AQ86">
+      <c r="AQ86" s="1">
         <v>0.19300743123504963</v>
       </c>
-      <c r="AR86">
+      <c r="AR86" s="1">
         <v>3.2395838094386648E-3</v>
       </c>
-      <c r="AS86">
+      <c r="AS86" s="1">
         <v>9.5542999284473822E-4</v>
       </c>
-      <c r="AT86">
+      <c r="AT86" s="1">
         <v>0.19742535535122666</v>
       </c>
-      <c r="AU86">
+      <c r="AU86" s="1">
         <v>0.57311672664081936</v>
       </c>
-      <c r="AV86">
+      <c r="AV86" s="1">
         <v>1.7242486371865566</v>
       </c>
-      <c r="AW86">
+      <c r="AW86" s="1">
         <v>0.26295054769888188</v>
       </c>
-      <c r="AX86">
+      <c r="AX86" s="1">
         <v>0.43429199023552634</v>
       </c>
-      <c r="AY86">
+      <c r="AY86" s="1">
         <v>0.37664619217675499</v>
       </c>
-      <c r="AZ86">
+      <c r="AZ86" s="1">
         <v>0.34235571612965326</v>
       </c>
-      <c r="BA86">
+      <c r="BA86" s="1">
         <v>1.0258872868685228E-2</v>
       </c>
-      <c r="BB86">
+      <c r="BB86" s="1">
         <v>7.6167574494659787E-2</v>
       </c>
-      <c r="BC86">
+      <c r="BC86" s="1">
         <v>7.6059057605837215E-3</v>
       </c>
-      <c r="BD86">
+      <c r="BD86" s="1">
         <v>7.9591140335281418E-3</v>
       </c>
-      <c r="BE86">
+      <c r="BE86" s="1">
         <v>0.11994999772214163</v>
       </c>
-      <c r="BF86">
+      <c r="BF86" s="1">
         <v>1.7806158975573438</v>
       </c>
-      <c r="BG86">
+      <c r="BG86" s="1">
         <v>0.16054159840727208</v>
       </c>
-      <c r="BH86">
+      <c r="BH86" s="1">
         <v>2.9568504535728509E-2</v>
       </c>
-      <c r="BI86">
+      <c r="BI86" s="1">
         <v>2.0452659392241588E-2</v>
       </c>
-      <c r="BJ86">
+      <c r="BJ86" s="1">
         <v>0.25648165262115385</v>
       </c>
-      <c r="BK86">
+      <c r="BK86" s="1">
         <v>2.605804179767721E-2</v>
       </c>
-      <c r="BL86">
+      <c r="BL86" s="1">
         <v>0.13583896087515326</v>
       </c>
-      <c r="BM86">
+      <c r="BM86" s="1">
         <v>2.2720316518477809E-3</v>
       </c>
-      <c r="BN86">
+      <c r="BN86" s="1">
         <v>11.828122173814492</v>
       </c>
-      <c r="BO86">
+      <c r="BO86" s="1">
         <v>13.837942423584144</v>
       </c>
-      <c r="BP86">
+      <c r="BP86" s="1">
         <v>19.389694126916709</v>
       </c>
-      <c r="BQ86">
+      <c r="BQ86" s="1">
         <v>5.0414226694931168</v>
       </c>
-      <c r="BR86">
+      <c r="BR86" s="1">
         <v>1.2008285705973623</v>
       </c>
-      <c r="BS86">
+      <c r="BS86" s="1">
         <v>3.3657223409234049</v>
       </c>
-      <c r="BT86">
+      <c r="BT86" s="1">
         <v>2.2005674066792325</v>
       </c>
-      <c r="BU86">
+      <c r="BU86" s="1">
         <v>229.95715332733045</v>
       </c>
-      <c r="BV86">
+      <c r="BV86" s="1">
         <v>17.242462927575868</v>
       </c>
-      <c r="BW86">
+      <c r="BW86" s="1">
         <v>18.665417305841675</v>
       </c>
-      <c r="BX86">
+      <c r="BX86" s="1">
         <v>3.0754642115979349</v>
       </c>
-      <c r="BY86">
+      <c r="BY86" s="1">
         <v>8.6168517918550851</v>
       </c>
-      <c r="BZ86">
+      <c r="BZ86" s="1">
         <v>150.21951144695302</v>
       </c>
-      <c r="CA86">
+      <c r="CA86" s="1">
         <v>4.7955796147371325E-2</v>
       </c>
-      <c r="CB86">
+      <c r="CB86" s="1">
         <v>0.63686988480521178</v>
       </c>
-      <c r="CC86">
+      <c r="CC86" s="1">
         <v>1.4581128898438328E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>287821</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>43</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>1</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>23.711844630000002</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1">
         <v>10</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="1">
         <v>2004</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="1">
         <v>1</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="1">
         <v>3</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="1">
         <v>6.047017780555318E-2</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="1">
         <v>3.0688103304527101</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="1">
         <v>9.3075661236679569E-2</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="1">
         <v>0.98031597843656704</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="1">
         <v>0.96748277476151434</v>
       </c>
-      <c r="P87">
+      <c r="P87" s="1">
         <v>0.11680030808371991</v>
       </c>
-      <c r="Q87">
+      <c r="Q87" s="1">
         <v>0.73141400453771865</v>
       </c>
-      <c r="R87">
+      <c r="R87" s="1">
         <v>2.4266291476310387</v>
       </c>
-      <c r="S87">
+      <c r="S87" s="1">
         <v>1.0848670000796827</v>
       </c>
-      <c r="T87">
+      <c r="T87" s="1">
         <v>0.16100454615515192</v>
       </c>
-      <c r="U87">
+      <c r="U87" s="1">
         <v>0.74683019338965573</v>
       </c>
-      <c r="V87">
+      <c r="V87" s="1">
         <v>2.4579265730861319</v>
       </c>
-      <c r="W87">
+      <c r="W87" s="1">
         <v>0.54975981131371821</v>
       </c>
-      <c r="X87">
+      <c r="X87" s="1">
         <v>19.262552724852441</v>
       </c>
-      <c r="Y87">
+      <c r="Y87" s="1">
         <v>5.2859674165998713</v>
       </c>
-      <c r="Z87">
+      <c r="Z87" s="1">
         <v>4.3477062287567572</v>
       </c>
-      <c r="AA87">
+      <c r="AA87" s="1">
         <v>7.2157680187671911</v>
       </c>
-      <c r="AB87">
+      <c r="AB87" s="1">
         <v>0.24463385047576328</v>
       </c>
-      <c r="AC87">
+      <c r="AC87" s="1">
         <v>0.15565983638129316</v>
       </c>
-      <c r="AD87">
+      <c r="AD87" s="1">
         <v>4.9906979034490337</v>
       </c>
-      <c r="AE87">
+      <c r="AE87" s="1">
         <v>7.7229697015621346</v>
       </c>
-      <c r="AF87">
+      <c r="AF87" s="1">
         <v>8.077376908186892</v>
       </c>
-      <c r="AG87">
+      <c r="AG87" s="1">
         <v>8.2093474999517646</v>
       </c>
-      <c r="AH87">
+      <c r="AH87" s="1">
         <v>14.912725014482115</v>
       </c>
-      <c r="AI87">
+      <c r="AI87" s="1">
         <v>1.335929592363277</v>
       </c>
-      <c r="AJ87">
+      <c r="AJ87" s="1">
         <v>8.5176238915441296</v>
       </c>
-      <c r="AK87">
+      <c r="AK87" s="1">
         <v>0.7887789619587513</v>
       </c>
-      <c r="AL87">
+      <c r="AL87" s="1">
         <v>0.47031837776114671</v>
       </c>
-      <c r="AM87">
+      <c r="AM87" s="1">
         <v>0.14293085571240835</v>
       </c>
-      <c r="AN87">
+      <c r="AN87" s="1">
         <v>0.17159575533934063</v>
       </c>
-      <c r="AO87">
+      <c r="AO87" s="1">
         <v>0.34097901349656257</v>
       </c>
-      <c r="AP87">
+      <c r="AP87" s="1">
         <v>10.35090303681668</v>
       </c>
-      <c r="AQ87">
+      <c r="AQ87" s="1">
         <v>4.1512166511598823</v>
       </c>
-      <c r="AR87">
+      <c r="AR87" s="1">
         <v>6.620407144863967E-2</v>
       </c>
-      <c r="AS87">
+      <c r="AS87" s="1">
         <v>0.37322006936181279</v>
       </c>
-      <c r="AT87">
+      <c r="AT87" s="1">
         <v>2.8147871531131834</v>
       </c>
-      <c r="AU87">
+      <c r="AU87" s="1">
         <v>20.489883641974625</v>
       </c>
-      <c r="AV87">
+      <c r="AV87" s="1">
         <v>98.243606902338996</v>
       </c>
-      <c r="AW87">
+      <c r="AW87" s="1">
         <v>9.4224360886490945</v>
       </c>
-      <c r="AX87">
+      <c r="AX87" s="1">
         <v>11.510917816893935</v>
       </c>
-      <c r="AY87">
+      <c r="AY87" s="1">
         <v>16.303819681204111</v>
       </c>
-      <c r="AZ87">
+      <c r="AZ87" s="1">
         <v>16.732643822702187</v>
       </c>
-      <c r="BA87">
+      <c r="BA87" s="1">
         <v>1.0815424214707277</v>
       </c>
-      <c r="BB87">
+      <c r="BB87" s="1">
         <v>3.1897602688004549</v>
       </c>
-      <c r="BC87">
+      <c r="BC87" s="1">
         <v>0.13514348386017447</v>
       </c>
-      <c r="BD87">
+      <c r="BD87" s="1">
         <v>1.5042040625179314</v>
       </c>
-      <c r="BE87">
+      <c r="BE87" s="1">
         <v>41.541188850426401</v>
       </c>
-      <c r="BF87">
+      <c r="BF87" s="1">
         <v>104.45407164335059</v>
       </c>
-      <c r="BG87">
+      <c r="BG87" s="1">
         <v>6.6284826084062791</v>
       </c>
-      <c r="BH87">
+      <c r="BH87" s="1">
         <v>1.2971240696548014</v>
       </c>
-      <c r="BI87">
+      <c r="BI87" s="1">
         <v>0.69454021378888708</v>
       </c>
-      <c r="BJ87">
+      <c r="BJ87" s="1">
         <v>6.7681196607406955</v>
       </c>
-      <c r="BK87">
+      <c r="BK87" s="1">
         <v>1.0425955082999141</v>
       </c>
-      <c r="BL87">
+      <c r="BL87" s="1">
         <v>0.88752122528376209</v>
       </c>
-      <c r="BM87">
+      <c r="BM87" s="1">
         <v>5.7651902358768492E-2</v>
       </c>
-      <c r="BN87">
+      <c r="BN87" s="1">
         <v>3.2328411001277138</v>
       </c>
-      <c r="BO87">
+      <c r="BO87" s="1">
         <v>0.68747234501607435</v>
       </c>
-      <c r="BP87">
+      <c r="BP87" s="1">
         <v>1.9181844456054435</v>
       </c>
-      <c r="BQ87">
+      <c r="BQ87" s="1">
         <v>0.24930579187522675</v>
       </c>
-      <c r="BR87">
+      <c r="BR87" s="1">
         <v>0.3602136225745412</v>
       </c>
-      <c r="BS87">
+      <c r="BS87" s="1">
         <v>1.2363929017006314</v>
       </c>
-      <c r="BT87">
+      <c r="BT87" s="1">
         <v>0.17719305378347922</v>
       </c>
-      <c r="BU87">
+      <c r="BU87" s="1">
         <v>1.8977212250762097</v>
       </c>
-      <c r="BV87">
+      <c r="BV87" s="1">
         <v>0.25669440120864834</v>
       </c>
-      <c r="BW87">
+      <c r="BW87" s="1">
         <v>0.37761070653302209</v>
       </c>
-      <c r="BX87">
+      <c r="BX87" s="1">
         <v>8.8573658333851654E-2</v>
       </c>
-      <c r="BY87">
+      <c r="BY87" s="1">
         <v>0.52445905028783357</v>
       </c>
-      <c r="BZ87">
+      <c r="BZ87" s="1">
         <v>4.4683258078720769</v>
       </c>
-      <c r="CA87">
+      <c r="CA87" s="1">
         <v>1.934024988560378</v>
       </c>
-      <c r="CB87">
+      <c r="CB87" s="1">
         <v>12.454625275451862</v>
       </c>
-      <c r="CC87">
+      <c r="CC87" s="1">
         <v>0.84035308563371836</v>
       </c>
     </row>
-    <row r="88" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>474471</v>
       </c>
@@ -23049,7 +23064,7 @@
         <v>13.178770380636889</v>
       </c>
     </row>
-    <row r="89" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>518001</v>
       </c>
@@ -23294,7 +23309,7 @@
         <v>0.41154179275111596</v>
       </c>
     </row>
-    <row r="90" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>469441</v>
       </c>
@@ -23539,7 +23554,7 @@
         <v>2.9381368191875352</v>
       </c>
     </row>
-    <row r="91" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>460731</v>
       </c>
@@ -23784,7 +23799,7 @@
         <v>1.4924726490380886</v>
       </c>
     </row>
-    <row r="92" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>467611</v>
       </c>
@@ -24029,7 +24044,7 @@
         <v>0.80512971790462329</v>
       </c>
     </row>
-    <row r="93" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>456991</v>
       </c>
@@ -24274,7 +24289,7 @@
         <v>1.1868561144287795</v>
       </c>
     </row>
-    <row r="94" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>418551</v>
       </c>
@@ -24519,7 +24534,7 @@
         <v>0.21232679818048825</v>
       </c>
     </row>
-    <row r="95" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>522911</v>
       </c>
@@ -24764,7 +24779,7 @@
         <v>0.29646486649744885</v>
       </c>
     </row>
-    <row r="96" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>529671</v>
       </c>
@@ -25009,7 +25024,7 @@
         <v>0.30172892756704267</v>
       </c>
     </row>
-    <row r="97" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>482151</v>
       </c>
@@ -25254,7 +25269,7 @@
         <v>0.86297493727055019</v>
       </c>
     </row>
-    <row r="98" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>656721</v>
       </c>
@@ -25499,7 +25514,7 @@
         <v>1.169741936335434</v>
       </c>
     </row>
-    <row r="99" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>656081</v>
       </c>
@@ -25744,7 +25759,7 @@
         <v>1.270266079865759</v>
       </c>
     </row>
-    <row r="100" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>211891</v>
       </c>
@@ -25989,7 +26004,7 @@
         <v>2.1696845210199345</v>
       </c>
     </row>
-    <row r="101" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>158331</v>
       </c>
@@ -26234,7 +26249,7 @@
         <v>8.1549330884715463</v>
       </c>
     </row>
-    <row r="102" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>569831</v>
       </c>
@@ -26479,7 +26494,7 @@
         <v>4.6808731960135201</v>
       </c>
     </row>
-    <row r="103" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>649991</v>
       </c>
@@ -26724,7 +26739,7 @@
         <v>1.9511617290891323</v>
       </c>
     </row>
-    <row r="104" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>599841</v>
       </c>
@@ -26969,7 +26984,7 @@
         <v>1.5847745336967496</v>
       </c>
     </row>
-    <row r="105" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>728101</v>
       </c>
@@ -27214,7 +27229,7 @@
         <v>1.8061265009301952</v>
       </c>
     </row>
-    <row r="106" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>734011</v>
       </c>
@@ -27459,7 +27474,7 @@
         <v>1.9121146976638934</v>
       </c>
     </row>
-    <row r="107" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>601241</v>
       </c>
@@ -27704,7 +27719,7 @@
         <v>2.0920468257237395</v>
       </c>
     </row>
-    <row r="108" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>468491</v>
       </c>
@@ -27949,7 +27964,7 @@
         <v>1.6163419916759145</v>
       </c>
     </row>
-    <row r="109" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>555731</v>
       </c>
@@ -28194,7 +28209,7 @@
         <v>1.2292735001777169</v>
       </c>
     </row>
-    <row r="110" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>206861</v>
       </c>
@@ -28439,7 +28454,7 @@
         <v>0.10907314547619031</v>
       </c>
     </row>
-    <row r="111" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>174191</v>
       </c>
@@ -28684,7 +28699,7 @@
         <v>3.0614888778301443</v>
       </c>
     </row>
-    <row r="112" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>56531</v>
       </c>
@@ -28929,7 +28944,7 @@
         <v>0.13678533595015002</v>
       </c>
     </row>
-    <row r="113" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>34481</v>
       </c>
@@ -29174,7 +29189,7 @@
         <v>0.30876804949081299</v>
       </c>
     </row>
-    <row r="114" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>72921</v>
       </c>
@@ -29419,7 +29434,7 @@
         <v>0.88329487026648235</v>
       </c>
     </row>
-    <row r="115" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>118391</v>
       </c>
@@ -29664,7 +29679,7 @@
         <v>1.0343949261318011</v>
       </c>
     </row>
-    <row r="116" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>194151</v>
       </c>
@@ -29909,7 +29924,7 @@
         <v>3.2806663625906368E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>152011</v>
       </c>
@@ -30154,7 +30169,7 @@
         <v>5.3511408146882715</v>
       </c>
     </row>
-    <row r="118" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>99071</v>
       </c>
@@ -30399,7 +30414,7 @@
         <v>2.693213936441357E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>88671</v>
       </c>
@@ -30644,7 +30659,7 @@
         <v>0.53109198662822354</v>
       </c>
     </row>
-    <row r="120" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>978331</v>
       </c>
@@ -30889,7 +30904,7 @@
         <v>1.6197300012915814</v>
       </c>
     </row>
-    <row r="121" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1018591</v>
       </c>
@@ -31134,7 +31149,7 @@
         <v>2.3216671677297307</v>
       </c>
     </row>
-    <row r="122" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3731</v>
       </c>
@@ -31379,7 +31394,7 @@
         <v>1.7328577784954013</v>
       </c>
     </row>
-    <row r="123" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>11521</v>
       </c>
@@ -31624,7 +31639,7 @@
         <v>0.4398448413081022</v>
       </c>
     </row>
-    <row r="124" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>23371</v>
       </c>
@@ -31869,7 +31884,7 @@
         <v>8.3116355463825536E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>38511</v>
       </c>
@@ -32114,7 +32129,7 @@
         <v>0.43509346097887508</v>
       </c>
     </row>
-    <row r="126" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>141</v>
       </c>
@@ -32359,7 +32374,7 @@
         <v>0.82921907398365835</v>
       </c>
     </row>
-    <row r="127" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>8951</v>
       </c>
@@ -32604,7 +32619,7 @@
         <v>0.93806173596417775</v>
       </c>
     </row>
-    <row r="128" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>89981</v>
       </c>
@@ -32849,7 +32864,7 @@
         <v>1.0907717934862076</v>
       </c>
     </row>
-    <row r="129" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>122291</v>
       </c>
@@ -33094,7 +33109,7 @@
         <v>3.5455878473286777</v>
       </c>
     </row>
-    <row r="130" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>57811</v>
       </c>
@@ -33339,7 +33354,7 @@
         <v>0.17262439627041737</v>
       </c>
     </row>
-    <row r="131" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>61071</v>
       </c>
@@ -33584,7 +33599,7 @@
         <v>0.18333180623894324</v>
       </c>
     </row>
-    <row r="132" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>121371</v>
       </c>
@@ -33829,7 +33844,7 @@
         <v>0.10249452293933212</v>
       </c>
     </row>
-    <row r="133" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>76791</v>
       </c>
@@ -34074,7 +34089,7 @@
         <v>3.4935526644210277</v>
       </c>
     </row>
-    <row r="134" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>256221</v>
       </c>
@@ -34319,7 +34334,7 @@
         <v>7.1586781326034181</v>
       </c>
     </row>
-    <row r="135" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>177021</v>
       </c>
@@ -34564,7 +34579,7 @@
         <v>0.13714610229168539</v>
       </c>
     </row>
-    <row r="136" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>291751</v>
       </c>
@@ -34809,7 +34824,7 @@
         <v>0.84832730731382011</v>
       </c>
     </row>
-    <row r="137" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>296051</v>
       </c>
@@ -35054,7 +35069,7 @@
         <v>0.77834143512894893</v>
       </c>
     </row>
-    <row r="138" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>519601</v>
       </c>
@@ -35299,7 +35314,7 @@
         <v>0.49050485779951442</v>
       </c>
     </row>
-    <row r="139" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>424951</v>
       </c>
@@ -35544,7 +35559,7 @@
         <v>0.86381635176161331</v>
       </c>
     </row>
-    <row r="140" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>97221</v>
       </c>
@@ -35789,7 +35804,7 @@
         <v>0.49008117865357231</v>
       </c>
     </row>
-    <row r="141" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>105451</v>
       </c>
@@ -36034,7 +36049,7 @@
         <v>1.3367978082332512</v>
       </c>
     </row>
-    <row r="142" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>37631</v>
       </c>
@@ -36279,7 +36294,7 @@
         <v>0.57376448548465819</v>
       </c>
     </row>
-    <row r="143" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>56091</v>
       </c>
@@ -36524,7 +36539,7 @@
         <v>2.7748517789773226</v>
       </c>
     </row>
-    <row r="144" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>24101</v>
       </c>
@@ -36769,7 +36784,7 @@
         <v>1.1941747232207733</v>
       </c>
     </row>
-    <row r="145" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>32931</v>
       </c>
@@ -37014,7 +37029,7 @@
         <v>1.3559098794901294</v>
       </c>
     </row>
-    <row r="146" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>975251</v>
       </c>
@@ -37259,7 +37274,7 @@
         <v>0.98923843136727552</v>
       </c>
     </row>
-    <row r="147" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>995601</v>
       </c>
@@ -37504,7 +37519,7 @@
         <v>4.9217273727560134</v>
       </c>
     </row>
-    <row r="148" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>276351</v>
       </c>
@@ -37749,7 +37764,7 @@
         <v>8.2311846967804669</v>
       </c>
     </row>
-    <row r="149" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>207561</v>
       </c>
@@ -37994,7 +38009,7 @@
         <v>0.26461453117714584</v>
       </c>
     </row>
-    <row r="150" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>467631</v>
       </c>
@@ -38239,7 +38254,7 @@
         <v>3.5778264696400018E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>506501</v>
       </c>
@@ -38484,7 +38499,7 @@
         <v>1.7160037343429193</v>
       </c>
     </row>
-    <row r="152" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>703251</v>
       </c>
@@ -38729,7 +38744,7 @@
         <v>3.2125875938309378</v>
       </c>
     </row>
-    <row r="153" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>606681</v>
       </c>
@@ -38974,7 +38989,7 @@
         <v>2.7876654698200851</v>
       </c>
     </row>
-    <row r="154" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>181111</v>
       </c>
@@ -39219,7 +39234,7 @@
         <v>2.2246492048649213</v>
       </c>
     </row>
-    <row r="155" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>221331</v>
       </c>
@@ -39464,7 +39479,7 @@
         <v>7.5529162043552338</v>
       </c>
     </row>
-    <row r="156" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>99761</v>
       </c>
@@ -39709,7 +39724,7 @@
         <v>0.39784008352723776</v>
       </c>
     </row>
-    <row r="157" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>106591</v>
       </c>
@@ -39954,7 +39969,7 @@
         <v>6.2110657455370734E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>80191</v>
       </c>
@@ -40199,7 +40214,7 @@
         <v>0.33146633584899987</v>
       </c>
     </row>
-    <row r="159" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>94471</v>
       </c>
@@ -40444,7 +40459,7 @@
         <v>0.91331490158614392</v>
       </c>
     </row>
-    <row r="160" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>339591</v>
       </c>
@@ -40689,7 +40704,7 @@
         <v>0.60414892134420173</v>
       </c>
     </row>
-    <row r="161" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>316431</v>
       </c>
@@ -40934,7 +40949,7 @@
         <v>8.0218862741270236</v>
       </c>
     </row>
-    <row r="162" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>720191</v>
       </c>
@@ -41179,7 +41194,7 @@
         <v>1.0423554864976667</v>
       </c>
     </row>
-    <row r="163" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>675371</v>
       </c>
@@ -41424,7 +41439,7 @@
         <v>0.27802905523764565</v>
       </c>
     </row>
-    <row r="164" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>376731</v>
       </c>
@@ -41669,7 +41684,7 @@
         <v>0.20838784663694718</v>
       </c>
     </row>
-    <row r="165" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>335221</v>
       </c>
@@ -41914,7 +41929,7 @@
         <v>0.12929616414617878</v>
       </c>
     </row>
-    <row r="166" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>143581</v>
       </c>
@@ -42159,7 +42174,7 @@
         <v>3.0213957572542722</v>
       </c>
     </row>
-    <row r="167" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>110851</v>
       </c>
@@ -42404,7 +42419,7 @@
         <v>1.372750133781498</v>
       </c>
     </row>
-    <row r="168" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>66131</v>
       </c>
@@ -42649,7 +42664,7 @@
         <v>8.6899879136311124</v>
       </c>
     </row>
-    <row r="169" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>139121</v>
       </c>
@@ -42894,7 +42909,7 @@
         <v>9.5979328430302147</v>
       </c>
     </row>
-    <row r="170" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>306971</v>
       </c>
@@ -43139,7 +43154,7 @@
         <v>0.61364498179666893</v>
       </c>
     </row>
-    <row r="171" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>340311</v>
       </c>
@@ -43384,7 +43399,7 @@
         <v>0.49002783433752789</v>
       </c>
     </row>
-    <row r="172" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>271351</v>
       </c>
@@ -43629,7 +43644,7 @@
         <v>0.44402403576866811</v>
       </c>
     </row>
-    <row r="173" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>226681</v>
       </c>
@@ -43874,7 +43889,7 @@
         <v>1.7441197772354695</v>
       </c>
     </row>
-    <row r="174" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>364551</v>
       </c>
@@ -44119,7 +44134,7 @@
         <v>9.4728175668606099E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1150791</v>
       </c>
@@ -44364,7 +44379,7 @@
         <v>6.3489415878266815</v>
       </c>
     </row>
-    <row r="176" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>543531</v>
       </c>
@@ -44609,7 +44624,7 @@
         <v>2.4168638211905011</v>
       </c>
     </row>
-    <row r="177" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>542631</v>
       </c>
@@ -44854,7 +44869,7 @@
         <v>0.55260822111942531</v>
       </c>
     </row>
-    <row r="178" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>545401</v>
       </c>
@@ -45099,7 +45114,7 @@
         <v>0.99486473846352375</v>
       </c>
     </row>
-    <row r="179" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>545731</v>
       </c>
@@ -45344,7 +45359,7 @@
         <v>0.18840587144265361</v>
       </c>
     </row>
-    <row r="180" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>49831</v>
       </c>
@@ -45589,7 +45604,7 @@
         <v>3.9845042745571746</v>
       </c>
     </row>
-    <row r="181" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>54791</v>
       </c>
@@ -45834,7 +45849,7 @@
         <v>0.36428512175153938</v>
       </c>
     </row>
-    <row r="182" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>214781</v>
       </c>
@@ -46079,7 +46094,7 @@
         <v>1.4263516091631794</v>
       </c>
     </row>
-    <row r="183" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>249711</v>
       </c>
@@ -46324,7 +46339,7 @@
         <v>1.057433504748903</v>
       </c>
     </row>
-    <row r="184" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>785421</v>
       </c>
@@ -46569,7 +46584,7 @@
         <v>2.9370863442828847</v>
       </c>
     </row>
-    <row r="185" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>857291</v>
       </c>
@@ -46814,7 +46829,7 @@
         <v>2.4593983601823797</v>
       </c>
     </row>
-    <row r="186" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>104211</v>
       </c>
@@ -47059,7 +47074,7 @@
         <v>0.47490405924289425</v>
       </c>
     </row>
-    <row r="187" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>131541</v>
       </c>
@@ -47304,7 +47319,7 @@
         <v>0.1573130009397003</v>
       </c>
     </row>
-    <row r="188" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>814531</v>
       </c>
@@ -47549,7 +47564,7 @@
         <v>1.8185705732650395</v>
       </c>
     </row>
-    <row r="189" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>875741</v>
       </c>
@@ -47794,7 +47809,7 @@
         <v>0.95919981058728232</v>
       </c>
     </row>
-    <row r="190" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>475781</v>
       </c>
@@ -48039,7 +48054,7 @@
         <v>0.55326794955110881</v>
       </c>
     </row>
-    <row r="191" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>520001</v>
       </c>
@@ -48284,7 +48299,7 @@
         <v>0.48868026745675142</v>
       </c>
     </row>
-    <row r="192" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>553421</v>
       </c>
@@ -48529,7 +48544,7 @@
         <v>0.1404216694944212</v>
       </c>
     </row>
-    <row r="193" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>531051</v>
       </c>
@@ -48774,7 +48789,7 @@
         <v>0.81781911916626371</v>
       </c>
     </row>
-    <row r="194" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>823411</v>
       </c>
@@ -49019,7 +49034,7 @@
         <v>1.7074625358189817</v>
       </c>
     </row>
-    <row r="195" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>776711</v>
       </c>
@@ -49264,7 +49279,7 @@
         <v>1.2945481653308082</v>
       </c>
     </row>
-    <row r="196" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>17501</v>
       </c>
@@ -49509,7 +49524,7 @@
         <v>0.67619165660268521</v>
       </c>
     </row>
-    <row r="197" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>19421</v>
       </c>
@@ -49754,7 +49769,7 @@
         <v>0.23386101656291627</v>
       </c>
     </row>
-    <row r="198" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>85211</v>
       </c>
@@ -49999,7 +50014,7 @@
         <v>2.7267058498269072E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>72501</v>
       </c>
@@ -50244,7 +50259,7 @@
         <v>3.4843471151208294</v>
       </c>
     </row>
-    <row r="200" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>14541</v>
       </c>
@@ -50489,7 +50504,7 @@
         <v>0.323981391033907</v>
       </c>
     </row>
-    <row r="201" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>15411</v>
       </c>
@@ -50735,7 +50750,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:CB201">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CB201">
     <sortCondition ref="C2:C201"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
